--- a/OnlineStore/OnlineStore/bin/testData/TestData.xlsx
+++ b/OnlineStore/OnlineStore/bin/testData/TestData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="34">
   <si>
     <t>Test Case Name</t>
   </si>
@@ -665,6 +665,9 @@
       <c r="M3" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="N3" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
@@ -676,10 +679,10 @@
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId10"/>
-    <hyperlink ref="M2" r:id="rId11"/>
-    <hyperlink ref="C3" r:id="rId12"/>
-    <hyperlink ref="M3" r:id="rId13"/>
+    <hyperlink ref="C2" r:id="rId22"/>
+    <hyperlink ref="M2" r:id="rId23"/>
+    <hyperlink ref="C3" r:id="rId24"/>
+    <hyperlink ref="M3" r:id="rId25"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
